--- a/详细设计/数据字典.xlsx
+++ b/详细设计/数据字典.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{315ACBF4-6F88-4972-BC23-353A8485E7B8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCDB833-AD21-47F1-9822-021C764B2516}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="City类" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Army" sheetId="4" r:id="rId4"/>
     <sheet name="Battle" sheetId="5" r:id="rId5"/>
     <sheet name="Time" sheetId="6" r:id="rId6"/>
+    <sheet name="Player" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="138">
   <si>
     <t>数据名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -562,6 +563,18 @@
   </si>
   <si>
     <t>新年快乐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Palyer表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player_MaxScore</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -652,10 +665,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -953,22 +966,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1142,42 +1155,42 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>92</v>
       </c>
     </row>
@@ -1214,22 +1227,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1449,47 +1462,47 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1519,22 +1532,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1628,22 +1641,22 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1661,7 +1674,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection sqref="A1:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1673,22 +1686,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1876,22 +1889,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1993,7 +2006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE49F6B-A2AD-440B-9F23-E35B881452E4}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -2003,22 +2016,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2070,6 +2083,76 @@
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49627384-C96C-448A-863E-3DDC873301A4}">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>
